--- a/artfynd/A 54373-2022.xlsx
+++ b/artfynd/A 54373-2022.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111714275</v>
+        <v>111714277</v>
       </c>
       <c r="B3" t="n">
-        <v>90660</v>
+        <v>90671</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,25 +813,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4362</v>
+        <v>6003298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Ruttaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum illudens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Maas Geest.) Nitare</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -921,10 +921,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111714277</v>
+        <v>111714275</v>
       </c>
       <c r="B4" t="n">
-        <v>90671</v>
+        <v>90660</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -933,25 +933,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6003298</v>
+        <v>4362</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ruttaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum illudens</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Maas Geest.) Nitare</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>

--- a/artfynd/A 54373-2022.xlsx
+++ b/artfynd/A 54373-2022.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111714277</v>
+        <v>111714275</v>
       </c>
       <c r="B3" t="n">
-        <v>90671</v>
+        <v>90660</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,25 +813,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6003298</v>
+        <v>4362</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ruttaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum illudens</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Maas Geest.) Nitare</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -921,10 +921,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111714275</v>
+        <v>111714277</v>
       </c>
       <c r="B4" t="n">
-        <v>90660</v>
+        <v>90671</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -933,25 +933,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4362</v>
+        <v>6003298</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Ruttaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum illudens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Maas Geest.) Nitare</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>

--- a/artfynd/A 54373-2022.xlsx
+++ b/artfynd/A 54373-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,6 +1039,135 @@
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>111679330</v>
+      </c>
+      <c r="B5" t="n">
+        <v>90671</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6003298</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ruttaggsvamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hydnellum illudens</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Maas Geest.) Nitare</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Hällkistans naturreservat, Nrk</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>513071.310405151</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6552108.266205128</v>
+      </c>
+      <c r="S5" t="n">
+        <v>25</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Kumla</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Kumla</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>3 olika mycel på en ganska liten yta</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 54373-2022.xlsx
+++ b/artfynd/A 54373-2022.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111714277</v>
+        <v>111714275</v>
       </c>
       <c r="B3" t="n">
-        <v>90671</v>
+        <v>90660</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,25 +813,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6003298</v>
+        <v>4362</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ruttaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum illudens</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Maas Geest.) Nitare</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>513091.9442238523</v>
+        <v>513092</v>
       </c>
       <c r="R3" t="n">
-        <v>6552092.415891824</v>
+        <v>6552092</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -881,19 +881,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -921,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111714275</v>
+        <v>111714277</v>
       </c>
       <c r="B4" t="n">
-        <v>90660</v>
+        <v>90671</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -933,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4362</v>
+        <v>6003298</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Ruttaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum illudens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Maas Geest.) Nitare</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -968,10 +958,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>513091.9442238523</v>
+        <v>513092</v>
       </c>
       <c r="R4" t="n">
-        <v>6552092.415891824</v>
+        <v>6552092</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1001,19 +991,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1092,10 +1072,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>513071.310405151</v>
+        <v>513071</v>
       </c>
       <c r="R5" t="n">
-        <v>6552108.266205128</v>
+        <v>6552108</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1125,19 +1105,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">

--- a/artfynd/A 54373-2022.xlsx
+++ b/artfynd/A 54373-2022.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111714275</v>
+        <v>111714277</v>
       </c>
       <c r="B3" t="n">
-        <v>90660</v>
+        <v>90671</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,25 +813,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4362</v>
+        <v>6003298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Ruttaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum illudens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Maas Geest.) Nitare</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111714277</v>
+        <v>111714275</v>
       </c>
       <c r="B4" t="n">
-        <v>90671</v>
+        <v>90660</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6003298</v>
+        <v>4362</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ruttaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum illudens</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Maas Geest.) Nitare</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1024,7 +1024,7 @@
         <v>111679330</v>
       </c>
       <c r="B5" t="n">
-        <v>90671</v>
+        <v>90805</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>

--- a/artfynd/A 54373-2022.xlsx
+++ b/artfynd/A 54373-2022.xlsx
@@ -1024,7 +1024,7 @@
         <v>111679330</v>
       </c>
       <c r="B5" t="n">
-        <v>90805</v>
+        <v>90819</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
